--- a/output/kruskal_wallis_test/anova_Q18_Gênero.xlsx
+++ b/output/kruskal_wallis_test/anova_Q18_Gênero.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.266611889638172</v>
+        <v>0.60606932442304</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.605613654246855</v>
+        <v>0.436271629097954</v>
       </c>
     </row>
   </sheetData>
